--- a/docs/odh/obf-ExpectedPerformanceTime-extension.xlsx
+++ b/docs/odh/obf-ExpectedPerformanceTime-extension.xlsx
@@ -223,7 +223,7 @@
   </si>
   <si>
     <t>dateTime
-PeriodTiming {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing}</t>
+PeriodTiming {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Timing}</t>
   </si>
   <si>
     <t>Value of extension</t>
